--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf2-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf2-Acvr2a.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N2">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q2">
-        <v>5.75719062461111</v>
+        <v>5.474275674611111</v>
       </c>
       <c r="R2">
-        <v>51.8147156215</v>
+        <v>49.26848107149999</v>
       </c>
       <c r="S2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="T2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N3">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O3">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P3">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q3">
         <v>9.279565548888888</v>
       </c>
       <c r="R3">
-        <v>83.51608994</v>
+        <v>83.51608993999999</v>
       </c>
       <c r="S3">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="T3">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N4">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q4">
-        <v>2.931725606194444</v>
+        <v>8.827674060416665</v>
       </c>
       <c r="R4">
-        <v>26.38553045575</v>
+        <v>79.44906654374999</v>
       </c>
       <c r="S4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="T4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N5">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O5">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P5">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q5">
-        <v>1.486669330166666</v>
+        <v>1.565545847944444</v>
       </c>
       <c r="R5">
-        <v>13.3800239715</v>
+        <v>14.0899126315</v>
       </c>
       <c r="S5">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="T5">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
     </row>
   </sheetData>
